--- a/biology/Botanique/Nymphéa_odorant/Nymphéa_odorant.xlsx
+++ b/biology/Botanique/Nymphéa_odorant/Nymphéa_odorant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nymph%C3%A9a_odorant</t>
+          <t>Nymphéa_odorant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nymphaea odorata
 La Nymphée odorante (Nymphaea odorata) est une espèce de nénuphar de la famille des Nymphaeaceae, trouvée de l'Amérique centrale jusqu'au sud du Canada.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nymph%C3%A9a_odorant</t>
+          <t>Nymphéa_odorant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nymphéa, lis d'eau, magnolia d'eau. Il s'agit d'un nénuphar, très proche de l'espèce européenne Nymphaea alba.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nymph%C3%A9a_odorant</t>
+          <t>Nymphéa_odorant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On la retrouve dans les étangs, les lacs et les rivières.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nymph%C3%A9a_odorant</t>
+          <t>Nymphéa_odorant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes aquatiques vivaces aux larges feuilles rondes et flottantes. Leur longue tige s'enfoncent dans le fond de l'eau. Les fleurs sont blanches ou rose pâle avec de nombreux pétales disposés en étoile.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nymph%C3%A9a_odorant</t>
+          <t>Nymphéa_odorant</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ojibwés mangeaient les bourgeons[1]. Plusieurs tribus autochtones préparaient des décoctions avec les fleurs pour soigner des abcès et des ulcères. En Europe, on s'en servait pour soigner les maladies vénériennes.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ojibwés mangeaient les bourgeons. Plusieurs tribus autochtones préparaient des décoctions avec les fleurs pour soigner des abcès et des ulcères. En Europe, on s'en servait pour soigner les maladies vénériennes.
 </t>
         </is>
       </c>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nymph%C3%A9a_odorant</t>
+          <t>Nymphéa_odorant</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,9 +656,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (9 nov. 2011)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (9 nov. 2011) :
 sous-espèce Nymphaea odorata subsp. odorata
 sous-espèce Nymphaea odorata subsp. tuberosa</t>
         </is>
